--- a/managers_spocs.xlsx
+++ b/managers_spocs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\booking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DDC67A-3AE9-4723-A87C-C3BC416F5932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA383BBC-E179-4D97-9AC0-21963E5FB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CF5315-E4EB-4DC8-95C1-4C362273FE02}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Dibyendu Das</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>SPOC Name</t>
+  </si>
+  <si>
+    <t>Test_Rm (FOR TEST M&amp;E)</t>
+  </si>
+  <si>
+    <t>TEST SPOC  (FOR TEST M&amp;E)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,11 +158,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -165,6 +182,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,16 +499,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127FAFB-87DE-497A-ABA2-0CEE0F1F60F8}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -571,6 +591,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/managers_spocs.xlsx
+++ b/managers_spocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA383BBC-E179-4D97-9AC0-21963E5FB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E784AD33-7F0C-4D3E-BC9C-AC57447A5CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CF5315-E4EB-4DC8-95C1-4C362273FE02}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Jyothy Franklin</t>
   </si>
   <si>
-    <t>Senthil Kumar</t>
-  </si>
-  <si>
     <t>Pradip Kumar Biswas</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>TEST SPOC  (FOR TEST M&amp;E)</t>
+  </si>
+  <si>
+    <t>Sudipta Biswas</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,10 +513,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -569,7 +569,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/managers_spocs.xlsx
+++ b/managers_spocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E784AD33-7F0C-4D3E-BC9C-AC57447A5CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86273A0E-7201-4DD7-B0AF-5D05A44849C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CF5315-E4EB-4DC8-95C1-4C362273FE02}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Dibyendu Das</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Sayani Chakraborty</t>
   </si>
   <si>
-    <t>Jyothy Franklin</t>
-  </si>
-  <si>
     <t>Pradip Kumar Biswas</t>
   </si>
   <si>
@@ -90,7 +87,22 @@
     <t>TEST SPOC  (FOR TEST M&amp;E)</t>
   </si>
   <si>
-    <t>Sudipta Biswas</t>
+    <t>Shadan Ahmed</t>
+  </si>
+  <si>
+    <t>Narendra Pannalal Maurya</t>
+  </si>
+  <si>
+    <t>Sital Mishra</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Manivaram</t>
+  </si>
+  <si>
+    <t>Upvan Dhar</t>
   </si>
 </sst>
 </file>
@@ -499,24 +511,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127FAFB-87DE-497A-ABA2-0CEE0F1F60F8}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
     <col min="2" max="2" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -553,7 +565,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -561,42 +573,74 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/managers_spocs.xlsx
+++ b/managers_spocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86273A0E-7201-4DD7-B0AF-5D05A44849C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4338DC4-59DA-4DB4-954C-A56C5A1E230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CF5315-E4EB-4DC8-95C1-4C362273FE02}"/>
   </bookViews>
@@ -568,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">

--- a/managers_spocs.xlsx
+++ b/managers_spocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4338DC4-59DA-4DB4-954C-A56C5A1E230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD9EAD5-FD81-46D9-8842-810C7629423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CF5315-E4EB-4DC8-95C1-4C362273FE02}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Dibyendu Das</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Upvan Dhar</t>
+  </si>
+  <si>
+    <t>Ajay kr Singh</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,22 +173,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -194,9 +186,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127FAFB-87DE-497A-ABA2-0CEE0F1F60F8}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,10 +625,18 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/managers_spocs.xlsx
+++ b/managers_spocs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD9EAD5-FD81-46D9-8842-810C7629423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F3CB15-D70F-4B48-8097-59C65C1D323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CF5315-E4EB-4DC8-95C1-4C362273FE02}"/>
   </bookViews>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Dibyendu Das</t>
   </si>
@@ -96,16 +99,37 @@
     <t>Sital Mishra</t>
   </si>
   <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Manivaram</t>
-  </si>
-  <si>
     <t>Upvan Dhar</t>
   </si>
   <si>
-    <t>Ajay kr Singh</t>
+    <t>Ajay Kr. Singh</t>
+  </si>
+  <si>
+    <t>Jinsmon Devasia</t>
+  </si>
+  <si>
+    <t>Khalid Khan</t>
+  </si>
+  <si>
+    <t>Dibyendu Das_SLOT_2</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_SLOT_3</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_SLOT_2</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_SLOT_4</t>
+  </si>
+  <si>
+    <t>Sanjeev Kumar_SPOC_2</t>
+  </si>
+  <si>
+    <t>Khalid Khan_SPOC_2</t>
+  </si>
+  <si>
+    <t>Vivek Kumar_SPOC_2</t>
   </si>
 </sst>
 </file>
@@ -179,13 +203,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,11 +526,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127FAFB-87DE-497A-ABA2-0CEE0F1F60F8}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -512,135 +536,176 @@
     <col min="2" max="2" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/managers_spocs.xlsx
+++ b/managers_spocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F3CB15-D70F-4B48-8097-59C65C1D323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D628F85E-01C8-4497-B53C-EA4ABA863A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CF5315-E4EB-4DC8-95C1-4C362273FE02}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Dibyendu Das</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Karra Shruti</t>
   </si>
   <si>
-    <t>Sanjeev Kumar</t>
-  </si>
-  <si>
     <t>Karra Bhavani</t>
   </si>
   <si>
@@ -111,25 +108,34 @@
     <t>Khalid Khan</t>
   </si>
   <si>
-    <t>Dibyendu Das_SLOT_2</t>
-  </si>
-  <si>
-    <t>Krishna Sadhan Adhikari_SLOT_3</t>
-  </si>
-  <si>
-    <t>Krishna Sadhan Adhikari_SLOT_2</t>
-  </si>
-  <si>
-    <t>Krishna Sadhan Adhikari_SLOT_4</t>
-  </si>
-  <si>
-    <t>Sanjeev Kumar_SPOC_2</t>
-  </si>
-  <si>
-    <t>Khalid Khan_SPOC_2</t>
-  </si>
-  <si>
-    <t>Vivek Kumar_SPOC_2</t>
+    <t>Susmita Sardar</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_2</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_3</t>
+  </si>
+  <si>
+    <t>Pritha Sen_2</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_4</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_5</t>
+  </si>
+  <si>
+    <t>Sanjeev Kumar_2</t>
+  </si>
+  <si>
+    <t>Sanjeev Kumar_3</t>
+  </si>
+  <si>
+    <t>Sanjeev Kumar_4</t>
+  </si>
+  <si>
+    <t>Karra Shruti_2</t>
   </si>
 </sst>
 </file>
@@ -526,9 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127FAFB-87DE-497A-ABA2-0CEE0F1F60F8}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -538,10 +546,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -554,7 +562,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -562,10 +570,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -578,7 +586,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
@@ -594,7 +602,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -605,7 +613,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -613,15 +621,15 @@
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -629,79 +637,95 @@
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/managers_spocs.xlsx
+++ b/managers_spocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D628F85E-01C8-4497-B53C-EA4ABA863A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E14C7F3-E92E-4D3E-9149-6AB505A3CFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CF5315-E4EB-4DC8-95C1-4C362273FE02}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Dibyendu Das</t>
   </si>
@@ -111,31 +111,40 @@
     <t>Susmita Sardar</t>
   </si>
   <si>
-    <t>Krishna Sadhan Adhikari_2</t>
-  </si>
-  <si>
-    <t>Krishna Sadhan Adhikari_3</t>
-  </si>
-  <si>
     <t>Pritha Sen_2</t>
   </si>
   <si>
-    <t>Krishna Sadhan Adhikari_4</t>
-  </si>
-  <si>
-    <t>Krishna Sadhan Adhikari_5</t>
-  </si>
-  <si>
-    <t>Sanjeev Kumar_2</t>
-  </si>
-  <si>
-    <t>Sanjeev Kumar_3</t>
-  </si>
-  <si>
-    <t>Sanjeev Kumar_4</t>
-  </si>
-  <si>
     <t>Karra Shruti_2</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_2nd SLOT</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_3rd SLOT</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_4th SLOT</t>
+  </si>
+  <si>
+    <t>Krishna Sadhan Adhikari_5th SLOT</t>
+  </si>
+  <si>
+    <t>Dibyendu Das_2nd SLOT</t>
+  </si>
+  <si>
+    <t>Sanjeev Kumar_2nd SLOT</t>
+  </si>
+  <si>
+    <t>Sanjeev Kumar_3rd SLOT</t>
+  </si>
+  <si>
+    <t>Sanjeev Kumar_4th SLOT</t>
+  </si>
+  <si>
+    <t>Khalid Khan_2nd SLOT</t>
+  </si>
+  <si>
+    <t>Vivek Kumar_2nd SLOT</t>
   </si>
 </sst>
 </file>
@@ -535,12 +544,12 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -562,7 +571,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -602,7 +611,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -610,15 +619,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -626,7 +635,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -650,7 +659,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1</v>
@@ -658,7 +667,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>23</v>
@@ -666,10 +675,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -698,7 +707,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -714,7 +723,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>10</v>

--- a/managers_spocs.xlsx
+++ b/managers_spocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatadd\slbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E14C7F3-E92E-4D3E-9149-6AB505A3CFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C2EF8F-DFB5-4BBE-BA4A-11E1002C4B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CF5315-E4EB-4DC8-95C1-4C362273FE02}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Dibyendu Das</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Pritha Sen_2</t>
   </si>
   <si>
-    <t>Karra Shruti_2</t>
-  </si>
-  <si>
     <t>Krishna Sadhan Adhikari_2nd SLOT</t>
   </si>
   <si>
@@ -138,13 +135,13 @@
     <t>Sanjeev Kumar_3rd SLOT</t>
   </si>
   <si>
-    <t>Sanjeev Kumar_4th SLOT</t>
-  </si>
-  <si>
     <t>Khalid Khan_2nd SLOT</t>
   </si>
   <si>
     <t>Vivek Kumar_2nd SLOT</t>
+  </si>
+  <si>
+    <t>Sanjeev Kumar</t>
   </si>
 </sst>
 </file>
@@ -541,11 +538,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127FAFB-87DE-497A-ABA2-0CEE0F1F60F8}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -571,7 +566,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -611,7 +606,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -619,7 +614,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -627,7 +622,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -635,7 +630,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -659,7 +654,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1</v>
@@ -667,7 +662,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>23</v>
@@ -675,13 +670,13 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -689,7 +684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -697,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -705,31 +700,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
